--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200610.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200610.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4211A8-FE32-4594-9E6E-DF504B7813A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C30FE0-DD84-47DA-877E-EADB98855642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10859,8 +10859,8 @@
   <dimension ref="A1:AT93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF2" sqref="AF2:AF92"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" customHeight="1"/>
@@ -11055,10 +11055,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D2" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>41</v>
@@ -11141,10 +11141,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D3" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
@@ -11223,10 +11223,10 @@
         <v>48</v>
       </c>
       <c r="C4" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D4" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>41</v>
@@ -11305,10 +11305,10 @@
         <v>48</v>
       </c>
       <c r="C5" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D5" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>41</v>
@@ -11387,10 +11387,10 @@
         <v>48</v>
       </c>
       <c r="C6" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D6" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>41</v>
@@ -11469,10 +11469,10 @@
         <v>48</v>
       </c>
       <c r="C7" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D7" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>41</v>
@@ -11551,10 +11551,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D8" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>41</v>
@@ -11633,10 +11633,10 @@
         <v>48</v>
       </c>
       <c r="C9" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D9" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
@@ -11717,10 +11717,10 @@
         <v>46</v>
       </c>
       <c r="C10" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D10" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>41</v>
@@ -11797,10 +11797,10 @@
         <v>48</v>
       </c>
       <c r="C11" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D11" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>41</v>
@@ -11879,10 +11879,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D12" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -11961,10 +11961,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D13" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>41</v>
@@ -12043,10 +12043,10 @@
         <v>48</v>
       </c>
       <c r="C14" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D14" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>41</v>
@@ -12125,10 +12125,10 @@
         <v>48</v>
       </c>
       <c r="C15" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D15" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>41</v>
@@ -12207,10 +12207,10 @@
         <v>48</v>
       </c>
       <c r="C16" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D16" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>41</v>
@@ -12289,10 +12289,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D17" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>41</v>
@@ -12371,10 +12371,10 @@
         <v>48</v>
       </c>
       <c r="C18" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D18" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>41</v>
@@ -12453,10 +12453,10 @@
         <v>46</v>
       </c>
       <c r="C19" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D19" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
@@ -12535,10 +12535,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D20" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>41</v>
@@ -12617,10 +12617,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D21" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>41</v>
@@ -12699,10 +12699,10 @@
         <v>48</v>
       </c>
       <c r="C22" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D22" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>41</v>
@@ -12781,10 +12781,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D23" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>41</v>
@@ -12863,10 +12863,10 @@
         <v>48</v>
       </c>
       <c r="C24" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D24" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>41</v>
@@ -12945,10 +12945,10 @@
         <v>48</v>
       </c>
       <c r="C25" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D25" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>41</v>
@@ -13027,10 +13027,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D26" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>41</v>
@@ -13109,10 +13109,10 @@
         <v>48</v>
       </c>
       <c r="C27" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D27" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>41</v>
@@ -13191,10 +13191,10 @@
         <v>48</v>
       </c>
       <c r="C28" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D28" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>41</v>
@@ -13273,10 +13273,10 @@
         <v>48</v>
       </c>
       <c r="C29" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D29" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>41</v>
@@ -13353,10 +13353,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D30" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>41</v>
@@ -13433,10 +13433,10 @@
         <v>48</v>
       </c>
       <c r="C31" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D31" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>41</v>
@@ -13515,10 +13515,10 @@
         <v>48</v>
       </c>
       <c r="C32" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D32" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>41</v>
@@ -13597,10 +13597,10 @@
         <v>48</v>
       </c>
       <c r="C33" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D33" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>41</v>
@@ -13679,10 +13679,10 @@
         <v>48</v>
       </c>
       <c r="C34" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D34" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>41</v>
@@ -13761,10 +13761,10 @@
         <v>48</v>
       </c>
       <c r="C35" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D35" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>41</v>
@@ -13843,10 +13843,10 @@
         <v>48</v>
       </c>
       <c r="C36" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D36" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>41</v>
@@ -13925,10 +13925,10 @@
         <v>48</v>
       </c>
       <c r="C37" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D37" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>41</v>
@@ -14007,10 +14007,10 @@
         <v>48</v>
       </c>
       <c r="C38" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D38" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>41</v>
@@ -14089,10 +14089,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D39" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>41</v>
@@ -14171,10 +14171,10 @@
         <v>48</v>
       </c>
       <c r="C40" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D40" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>41</v>
@@ -14253,10 +14253,10 @@
         <v>46</v>
       </c>
       <c r="C41" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D41" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>41</v>
@@ -14335,10 +14335,10 @@
         <v>48</v>
       </c>
       <c r="C42" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D42" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>41</v>
@@ -14417,10 +14417,10 @@
         <v>48</v>
       </c>
       <c r="C43" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D43" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>41</v>
@@ -14499,10 +14499,10 @@
         <v>48</v>
       </c>
       <c r="C44" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D44" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>41</v>
@@ -14583,10 +14583,10 @@
         <v>48</v>
       </c>
       <c r="C45" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D45" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>41</v>
@@ -14665,10 +14665,10 @@
         <v>48</v>
       </c>
       <c r="C46" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D46" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>41</v>
@@ -14747,10 +14747,10 @@
         <v>48</v>
       </c>
       <c r="C47" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D47" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>41</v>
@@ -14829,10 +14829,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D48" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>41</v>
@@ -14911,10 +14911,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D49" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>41</v>
@@ -14993,10 +14993,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D50" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>41</v>
@@ -15075,10 +15075,10 @@
         <v>48</v>
       </c>
       <c r="C51" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D51" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>41</v>
@@ -15157,10 +15157,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D52" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>41</v>
@@ -15239,10 +15239,10 @@
         <v>46</v>
       </c>
       <c r="C53" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D53" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>41</v>
@@ -15321,10 +15321,10 @@
         <v>48</v>
       </c>
       <c r="C54" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D54" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>41</v>
@@ -15403,10 +15403,10 @@
         <v>48</v>
       </c>
       <c r="C55" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D55" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>41</v>
@@ -15485,10 +15485,10 @@
         <v>48</v>
       </c>
       <c r="C56" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D56" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>41</v>
@@ -15567,10 +15567,10 @@
         <v>48</v>
       </c>
       <c r="C57" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D57" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>41</v>
@@ -15649,10 +15649,10 @@
         <v>48</v>
       </c>
       <c r="C58" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D58" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>41</v>
@@ -15731,10 +15731,10 @@
         <v>48</v>
       </c>
       <c r="C59" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D59" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>41</v>
@@ -15813,10 +15813,10 @@
         <v>46</v>
       </c>
       <c r="C60" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D60" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>41</v>
@@ -15893,10 +15893,10 @@
         <v>48</v>
       </c>
       <c r="C61" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D61" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>41</v>
@@ -15975,10 +15975,10 @@
         <v>48</v>
       </c>
       <c r="C62" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D62" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>41</v>
@@ -16057,10 +16057,10 @@
         <v>48</v>
       </c>
       <c r="C63" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D63" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>41</v>
@@ -16139,10 +16139,10 @@
         <v>48</v>
       </c>
       <c r="C64" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D64" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>41</v>
@@ -16221,10 +16221,10 @@
         <v>48</v>
       </c>
       <c r="C65" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D65" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>41</v>
@@ -16303,10 +16303,10 @@
         <v>48</v>
       </c>
       <c r="C66" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D66" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>41</v>
@@ -16385,10 +16385,10 @@
         <v>46</v>
       </c>
       <c r="C67" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D67" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>41</v>
@@ -16465,10 +16465,10 @@
         <v>48</v>
       </c>
       <c r="C68" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D68" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>41</v>
@@ -16547,10 +16547,10 @@
         <v>48</v>
       </c>
       <c r="C69" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D69" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>41</v>
@@ -16629,10 +16629,10 @@
         <v>48</v>
       </c>
       <c r="C70" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D70" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>41</v>
@@ -16711,10 +16711,10 @@
         <v>48</v>
       </c>
       <c r="C71" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D71" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>41</v>
@@ -16793,10 +16793,10 @@
         <v>48</v>
       </c>
       <c r="C72" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D72" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>41</v>
@@ -16875,10 +16875,10 @@
         <v>48</v>
       </c>
       <c r="C73" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D73" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>41</v>
@@ -16957,10 +16957,10 @@
         <v>46</v>
       </c>
       <c r="C74" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D74" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>41</v>
@@ -17037,10 +17037,10 @@
         <v>48</v>
       </c>
       <c r="C75" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D75" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>41</v>
@@ -17119,10 +17119,10 @@
         <v>48</v>
       </c>
       <c r="C76" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D76" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>41</v>
@@ -17201,10 +17201,10 @@
         <v>46</v>
       </c>
       <c r="C77" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D77" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>41</v>
@@ -17286,10 +17286,10 @@
         <v>48</v>
       </c>
       <c r="C78" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D78" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>41</v>
@@ -17369,10 +17369,10 @@
         <v>48</v>
       </c>
       <c r="C79" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D79" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>41</v>
@@ -17450,10 +17450,10 @@
         <v>48</v>
       </c>
       <c r="C80" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D80" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>41</v>
@@ -17534,10 +17534,10 @@
         <v>48</v>
       </c>
       <c r="C81" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D81" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>41</v>
@@ -17616,10 +17616,10 @@
         <v>48</v>
       </c>
       <c r="C82" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D82" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>41</v>
@@ -17698,10 +17698,10 @@
         <v>48</v>
       </c>
       <c r="C83" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D83" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>41</v>
@@ -17755,10 +17755,10 @@
         <v>48</v>
       </c>
       <c r="C84" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D84" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>41</v>
@@ -17812,10 +17812,10 @@
         <v>48</v>
       </c>
       <c r="C85" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D85" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>41</v>
@@ -17868,10 +17868,10 @@
         <v>48</v>
       </c>
       <c r="C86" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D86" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>41</v>
@@ -17924,10 +17924,10 @@
         <v>48</v>
       </c>
       <c r="C87" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D87" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>41</v>
@@ -17981,10 +17981,10 @@
         <v>48</v>
       </c>
       <c r="C88" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D88" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>41</v>
@@ -18038,10 +18038,10 @@
         <v>48</v>
       </c>
       <c r="C89" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D89" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>41</v>
@@ -18095,10 +18095,10 @@
         <v>48</v>
       </c>
       <c r="C90" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D90" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>41</v>
@@ -18152,10 +18152,10 @@
         <v>48</v>
       </c>
       <c r="C91" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D91" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>41</v>
@@ -18208,10 +18208,10 @@
         <v>48</v>
       </c>
       <c r="C92" s="18">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D92" s="18">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>41</v>
